--- a/model/FeatureImportanceDecTree_pretty.xlsx
+++ b/model/FeatureImportanceDecTree_pretty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\SustainabilityReport\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB311A80-50D0-444C-87CA-FDA0D5026F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB23C6C-A198-4C48-BC1D-D106E32A44D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dict" sheetId="2" r:id="rId1"/>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA15E92A-844D-45CB-9EC5-BDBBCFA0AE45}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:AF1"/>
     </sheetView>
   </sheetViews>
